--- a/平成31年度/04_総会資料/2. 令和元年度 活動報告.xlsx
+++ b/平成31年度/04_総会資料/2. 令和元年度 活動報告.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="143">
   <si>
     <t>４月</t>
     <rPh sb="1" eb="2">
@@ -1364,6 +1364,13 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1945,17 +1952,230 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1966,377 +2186,164 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2684,41 +2691,41 @@
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
     </row>
     <row r="3" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="147" t="s">
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="148"/>
+      <c r="F3" s="118"/>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="148"/>
+      <c r="I3" s="118"/>
     </row>
     <row r="4" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="127" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="57"/>
-      <c r="E4" s="190" t="s">
+      <c r="E4" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="191"/>
+      <c r="F4" s="185"/>
       <c r="G4" s="66"/>
       <c r="H4" s="67" t="s">
         <v>17</v>
@@ -2726,18 +2733,18 @@
       <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="195"/>
-      <c r="B5" s="111"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="71">
         <v>10</v>
       </c>
       <c r="D5" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="166" t="s">
+      <c r="E5" s="142" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="167"/>
+      <c r="F5" s="143"/>
       <c r="G5" s="66" t="s">
         <v>89</v>
       </c>
@@ -2749,46 +2756,46 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="195"/>
-      <c r="B6" s="111"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="128"/>
       <c r="C6" s="62">
         <v>11</v>
       </c>
       <c r="D6" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="153"/>
-      <c r="G6" s="119" t="s">
+      <c r="F6" s="131"/>
+      <c r="G6" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="103" t="s">
+      <c r="H6" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="131" t="s">
+      <c r="I6" s="106" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="195"/>
-      <c r="B7" s="111"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="63">
         <v>17</v>
       </c>
       <c r="D7" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="132"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="189"/>
     </row>
     <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="195"/>
-      <c r="B8" s="180" t="s">
+      <c r="A8" s="120"/>
+      <c r="B8" s="203" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="4">
@@ -2797,61 +2804,61 @@
       <c r="D8" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="124" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="176"/>
-      <c r="G8" s="183" t="s">
+      <c r="F8" s="180"/>
+      <c r="G8" s="206" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="103" t="s">
+      <c r="H8" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="131" t="s">
+      <c r="I8" s="106" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="195"/>
-      <c r="B9" s="181"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="204"/>
       <c r="C9" s="28">
         <v>3</v>
       </c>
       <c r="D9" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="132"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="189"/>
     </row>
     <row r="10" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="195"/>
-      <c r="B10" s="181"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="4">
         <v>9</v>
       </c>
       <c r="D10" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="193" t="s">
+      <c r="E10" s="187" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="194"/>
-      <c r="G10" s="192" t="s">
+      <c r="F10" s="188"/>
+      <c r="G10" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="103" t="s">
+      <c r="H10" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="131" t="s">
+      <c r="I10" s="106" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="195"/>
-      <c r="B11" s="181"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="204"/>
       <c r="C11" s="6">
         <v>10</v>
       </c>
@@ -2862,57 +2869,57 @@
         <v>137</v>
       </c>
       <c r="F11" s="65"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="96"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="108"/>
     </row>
     <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="195"/>
-      <c r="B12" s="181"/>
+      <c r="A12" s="120"/>
+      <c r="B12" s="204"/>
       <c r="C12" s="4">
         <v>16</v>
       </c>
       <c r="D12" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="176"/>
-      <c r="G12" s="178" t="s">
+      <c r="F12" s="180"/>
+      <c r="G12" s="182" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="93" t="s">
+      <c r="H12" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="95" t="s">
+      <c r="I12" s="126" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="195"/>
-      <c r="B13" s="181"/>
+      <c r="A13" s="120"/>
+      <c r="B13" s="204"/>
       <c r="C13" s="28">
         <v>17</v>
       </c>
       <c r="D13" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="94"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="96"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="108"/>
     </row>
     <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="195"/>
-      <c r="B14" s="181"/>
+      <c r="A14" s="120"/>
+      <c r="B14" s="204"/>
       <c r="C14" s="4"/>
       <c r="D14" s="70"/>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="176"/>
+      <c r="F14" s="180"/>
       <c r="G14" s="8"/>
       <c r="H14" s="73" t="s">
         <v>2</v>
@@ -2920,89 +2927,89 @@
       <c r="I14" s="75"/>
     </row>
     <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="195"/>
-      <c r="B15" s="181"/>
+      <c r="A15" s="120"/>
+      <c r="B15" s="204"/>
       <c r="C15" s="4">
         <v>30</v>
       </c>
       <c r="D15" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="176"/>
-      <c r="G15" s="178" t="s">
+      <c r="F15" s="180"/>
+      <c r="G15" s="182" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="93" t="s">
+      <c r="H15" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="131" t="s">
+      <c r="I15" s="106" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="195"/>
-      <c r="B16" s="182"/>
+      <c r="A16" s="120"/>
+      <c r="B16" s="205"/>
       <c r="C16" s="28">
         <v>31</v>
       </c>
       <c r="D16" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="96"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="108"/>
     </row>
     <row r="17" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="195"/>
-      <c r="B17" s="110" t="s">
+      <c r="A17" s="120"/>
+      <c r="B17" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="113" t="s">
+      <c r="C17" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="116" t="s">
+      <c r="D17" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="145" t="s">
+      <c r="E17" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="187"/>
-      <c r="G17" s="119" t="s">
+      <c r="F17" s="157"/>
+      <c r="G17" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="139" t="s">
+      <c r="H17" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="I17" s="131" t="s">
+      <c r="I17" s="106" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="195"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="159"/>
+      <c r="A18" s="120"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="107"/>
     </row>
     <row r="19" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="195"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="96"/>
+      <c r="A19" s="120"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="108"/>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
       <c r="M19" s="44"/>
@@ -3029,8 +3036,8 @@
       <c r="AH19" s="44"/>
     </row>
     <row r="20" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="195"/>
-      <c r="B20" s="110" t="s">
+      <c r="A20" s="120"/>
+      <c r="B20" s="127" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="90">
@@ -3039,17 +3046,17 @@
       <c r="D20" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="172" t="s">
+      <c r="E20" s="197" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="105"/>
-      <c r="G20" s="170" t="s">
+      <c r="F20" s="198"/>
+      <c r="G20" s="195" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="145" t="s">
+      <c r="H20" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="95" t="s">
+      <c r="I20" s="126" t="s">
         <v>62</v>
       </c>
       <c r="K20" s="44"/>
@@ -3078,19 +3085,19 @@
       <c r="AH20" s="44"/>
     </row>
     <row r="21" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="195"/>
-      <c r="B21" s="111"/>
+      <c r="A21" s="120"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="6">
         <v>12</v>
       </c>
       <c r="D21" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="106"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="96"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="108"/>
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
       <c r="M21" s="44"/>
@@ -3117,14 +3124,14 @@
       <c r="AH21" s="44"/>
     </row>
     <row r="22" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="195"/>
-      <c r="B22" s="111"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="6"/>
       <c r="D22" s="58"/>
-      <c r="E22" s="160" t="s">
+      <c r="E22" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="161"/>
+      <c r="F22" s="150"/>
       <c r="G22" s="39"/>
       <c r="H22" s="34" t="s">
         <v>22</v>
@@ -3156,14 +3163,14 @@
       <c r="AH22" s="44"/>
     </row>
     <row r="23" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="195"/>
-      <c r="B23" s="111"/>
+      <c r="A23" s="120"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="4"/>
       <c r="D23" s="57"/>
-      <c r="E23" s="93" t="s">
+      <c r="E23" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="100"/>
+      <c r="F23" s="153"/>
       <c r="G23" s="81"/>
       <c r="H23" s="73" t="s">
         <v>2</v>
@@ -3195,23 +3202,23 @@
       <c r="AH23" s="44"/>
     </row>
     <row r="24" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="195"/>
-      <c r="B24" s="112"/>
+      <c r="A24" s="120"/>
+      <c r="B24" s="129"/>
       <c r="C24" s="4"/>
       <c r="D24" s="57"/>
-      <c r="E24" s="174" t="s">
+      <c r="E24" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="175"/>
+      <c r="F24" s="202"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="147" t="s">
+      <c r="H24" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="148"/>
+      <c r="I24" s="118"/>
     </row>
     <row r="25" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="195"/>
-      <c r="B25" s="110" t="s">
+      <c r="A25" s="120"/>
+      <c r="B25" s="127" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="90">
@@ -3220,11 +3227,11 @@
       <c r="D25" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="104" t="s">
+      <c r="E25" s="221" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="105"/>
-      <c r="G25" s="108" t="s">
+      <c r="F25" s="198"/>
+      <c r="G25" s="222" t="s">
         <v>66</v>
       </c>
       <c r="H25" s="42" t="s">
@@ -3259,17 +3266,17 @@
       <c r="AH25" s="44"/>
     </row>
     <row r="26" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="195"/>
-      <c r="B26" s="111"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="6">
         <v>16</v>
       </c>
       <c r="D26" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="106"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="109"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="223"/>
       <c r="H26" s="42" t="s">
         <v>2</v>
       </c>
@@ -3300,59 +3307,59 @@
       <c r="AH26" s="44"/>
     </row>
     <row r="27" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="195"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="113" t="s">
+      <c r="A27" s="120"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="116" t="s">
+      <c r="D27" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="162" t="s">
+      <c r="E27" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="163"/>
-      <c r="G27" s="119" t="s">
+      <c r="F27" s="160"/>
+      <c r="G27" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="139" t="s">
+      <c r="H27" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="I27" s="131" t="s">
+      <c r="I27" s="106" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="195"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="200"/>
-      <c r="F28" s="201"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="188"/>
-      <c r="I28" s="159"/>
+      <c r="A28" s="120"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="191"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="107"/>
     </row>
     <row r="29" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="195"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="96"/>
+      <c r="A29" s="120"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="192"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="108"/>
     </row>
     <row r="30" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="195"/>
-      <c r="B30" s="112"/>
+      <c r="A30" s="120"/>
+      <c r="B30" s="129"/>
       <c r="C30" s="78"/>
       <c r="D30" s="80"/>
-      <c r="E30" s="146" t="s">
+      <c r="E30" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="173"/>
+      <c r="F30" s="158"/>
       <c r="G30" s="74"/>
       <c r="H30" s="3" t="s">
         <v>3</v>
@@ -3360,8 +3367,8 @@
       <c r="I30" s="33"/>
     </row>
     <row r="31" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="195"/>
-      <c r="B31" s="111" t="s">
+      <c r="A31" s="120"/>
+      <c r="B31" s="128" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="4">
@@ -3370,10 +3377,10 @@
       <c r="D31" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="145" t="s">
+      <c r="E31" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="187"/>
+      <c r="F31" s="157"/>
       <c r="G31" s="5" t="s">
         <v>77</v>
       </c>
@@ -3385,16 +3392,16 @@
       </c>
     </row>
     <row r="32" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="195"/>
-      <c r="B32" s="111"/>
+      <c r="A32" s="120"/>
+      <c r="B32" s="128"/>
       <c r="C32" s="6">
         <v>7</v>
       </c>
       <c r="D32" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="146"/>
-      <c r="F32" s="173"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="158"/>
       <c r="G32" s="7" t="s">
         <v>75</v>
       </c>
@@ -3404,101 +3411,101 @@
       <c r="I32" s="33"/>
     </row>
     <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="195"/>
-      <c r="B33" s="111"/>
+      <c r="A33" s="120"/>
+      <c r="B33" s="128"/>
       <c r="C33" s="28"/>
       <c r="D33" s="59"/>
-      <c r="E33" s="133" t="s">
+      <c r="E33" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="134"/>
-      <c r="G33" s="97" t="s">
+      <c r="F33" s="172"/>
+      <c r="G33" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="93" t="s">
+      <c r="H33" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="95" t="s">
+      <c r="I33" s="126" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="195"/>
-      <c r="B34" s="111"/>
+      <c r="A34" s="120"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="28">
         <v>14</v>
       </c>
       <c r="D34" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="135"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="159"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="169"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="107"/>
     </row>
     <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="195"/>
-      <c r="B35" s="111"/>
+      <c r="A35" s="120"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="28"/>
       <c r="D35" s="59"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="138"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="96"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="108"/>
     </row>
     <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="195"/>
-      <c r="B36" s="111"/>
+      <c r="A36" s="120"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="4">
         <v>20</v>
       </c>
       <c r="D36" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="103" t="s">
+      <c r="E36" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="100"/>
-      <c r="G36" s="102" t="s">
+      <c r="F36" s="153"/>
+      <c r="G36" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="H36" s="93" t="s">
+      <c r="H36" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="95" t="s">
+      <c r="I36" s="126" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="195"/>
-      <c r="B37" s="111"/>
+      <c r="A37" s="120"/>
+      <c r="B37" s="128"/>
       <c r="C37" s="6">
         <v>21</v>
       </c>
       <c r="D37" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="94"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="96"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="190"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="108"/>
     </row>
     <row r="38" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="195"/>
-      <c r="B38" s="111"/>
+      <c r="A38" s="120"/>
+      <c r="B38" s="128"/>
       <c r="C38" s="4">
         <v>27</v>
       </c>
       <c r="D38" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="93" t="s">
+      <c r="E38" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="F38" s="100"/>
+      <c r="F38" s="153"/>
       <c r="G38" s="5" t="s">
         <v>82</v>
       </c>
@@ -3510,16 +3517,16 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="195"/>
-      <c r="B39" s="111"/>
+      <c r="A39" s="120"/>
+      <c r="B39" s="128"/>
       <c r="C39" s="6">
         <v>28</v>
       </c>
       <c r="D39" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="94"/>
-      <c r="F39" s="101"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="190"/>
       <c r="G39" s="7" t="s">
         <v>83</v>
       </c>
@@ -3529,14 +3536,14 @@
       <c r="I39" s="76"/>
     </row>
     <row r="40" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="195"/>
-      <c r="B40" s="111"/>
+      <c r="A40" s="120"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="56"/>
       <c r="D40" s="60"/>
-      <c r="E40" s="196" t="s">
+      <c r="E40" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="197"/>
+      <c r="F40" s="152"/>
       <c r="G40" s="30"/>
       <c r="H40" s="37" t="s">
         <v>22</v>
@@ -3544,8 +3551,8 @@
       <c r="I40" s="32"/>
     </row>
     <row r="41" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="195"/>
-      <c r="B41" s="110" t="s">
+      <c r="A41" s="120"/>
+      <c r="B41" s="127" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="4">
@@ -3554,10 +3561,10 @@
       <c r="D41" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="93" t="s">
+      <c r="E41" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="100"/>
+      <c r="F41" s="153"/>
       <c r="G41" s="5" t="s">
         <v>84</v>
       </c>
@@ -3569,16 +3576,16 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="195"/>
-      <c r="B42" s="111"/>
+      <c r="A42" s="120"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="6">
         <v>11</v>
       </c>
       <c r="D42" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="94"/>
-      <c r="F42" s="101"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="190"/>
       <c r="G42" s="7" t="s">
         <v>85</v>
       </c>
@@ -3588,52 +3595,52 @@
       <c r="I42" s="33"/>
     </row>
     <row r="43" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="195"/>
-      <c r="B43" s="111"/>
+      <c r="A43" s="120"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="4">
         <v>24</v>
       </c>
       <c r="D43" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="166" t="s">
+      <c r="E43" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="F43" s="167"/>
-      <c r="G43" s="127" t="s">
+      <c r="F43" s="143"/>
+      <c r="G43" s="214" t="s">
         <v>87</v>
       </c>
-      <c r="H43" s="93" t="s">
+      <c r="H43" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="I43" s="95" t="s">
+      <c r="I43" s="126" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="195"/>
-      <c r="B44" s="111"/>
+      <c r="A44" s="120"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="6">
         <v>25</v>
       </c>
       <c r="D44" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="202"/>
-      <c r="F44" s="203"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="96"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="192"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="108"/>
     </row>
     <row r="45" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="195"/>
-      <c r="B45" s="111"/>
+      <c r="A45" s="120"/>
+      <c r="B45" s="128"/>
       <c r="C45" s="4"/>
       <c r="D45" s="57"/>
-      <c r="E45" s="156" t="s">
+      <c r="E45" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="157"/>
+      <c r="F45" s="116"/>
       <c r="G45" s="81"/>
       <c r="H45" s="73" t="s">
         <v>2</v>
@@ -3641,14 +3648,14 @@
       <c r="I45" s="75"/>
     </row>
     <row r="46" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="195"/>
-      <c r="B46" s="111"/>
+      <c r="A46" s="120"/>
+      <c r="B46" s="128"/>
       <c r="C46" s="4"/>
       <c r="D46" s="57"/>
-      <c r="E46" s="93" t="s">
+      <c r="E46" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="100"/>
+      <c r="F46" s="153"/>
       <c r="G46" s="92"/>
       <c r="H46" s="73" t="s">
         <v>2</v>
@@ -3656,8 +3663,8 @@
       <c r="I46" s="75"/>
     </row>
     <row r="47" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="195"/>
-      <c r="B47" s="110" t="s">
+      <c r="A47" s="120"/>
+      <c r="B47" s="127" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="55">
@@ -3681,63 +3688,63 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="195"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="113" t="s">
+      <c r="A48" s="120"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="116" t="s">
+      <c r="D48" s="165" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="139" t="s">
+      <c r="E48" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="140"/>
-      <c r="G48" s="97" t="s">
+      <c r="F48" s="215"/>
+      <c r="G48" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="H48" s="139" t="s">
+      <c r="H48" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="I48" s="131" t="s">
+      <c r="I48" s="106" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="195"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="141"/>
-      <c r="F49" s="142"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="188"/>
-      <c r="I49" s="159"/>
+      <c r="A49" s="120"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="166"/>
+      <c r="E49" s="216"/>
+      <c r="F49" s="217"/>
+      <c r="G49" s="169"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="107"/>
     </row>
     <row r="50" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="195"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="143"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="146"/>
-      <c r="I50" s="96"/>
+      <c r="A50" s="120"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="218"/>
+      <c r="F50" s="219"/>
+      <c r="G50" s="170"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="108"/>
     </row>
     <row r="51" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="195"/>
-      <c r="B51" s="111"/>
+      <c r="A51" s="120"/>
+      <c r="B51" s="128"/>
       <c r="C51" s="55">
         <v>15</v>
       </c>
       <c r="D51" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="93" t="s">
+      <c r="E51" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="F51" s="100"/>
+      <c r="F51" s="153"/>
       <c r="G51" s="87" t="s">
         <v>101</v>
       </c>
@@ -3749,63 +3756,63 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="195"/>
-      <c r="B52" s="111"/>
+      <c r="A52" s="120"/>
+      <c r="B52" s="128"/>
       <c r="C52" s="28"/>
       <c r="D52" s="89"/>
-      <c r="E52" s="133" t="s">
+      <c r="E52" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="F52" s="134"/>
-      <c r="G52" s="204" t="s">
+      <c r="F52" s="172"/>
+      <c r="G52" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="H52" s="93" t="s">
+      <c r="H52" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="I52" s="95" t="s">
+      <c r="I52" s="126" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="195"/>
-      <c r="B53" s="111"/>
+      <c r="A53" s="120"/>
+      <c r="B53" s="128"/>
       <c r="C53" s="28">
         <v>21</v>
       </c>
       <c r="D53" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="135"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="205"/>
-      <c r="H53" s="158"/>
-      <c r="I53" s="159"/>
+      <c r="E53" s="173"/>
+      <c r="F53" s="174"/>
+      <c r="G53" s="123"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="107"/>
     </row>
     <row r="54" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="195"/>
-      <c r="B54" s="111"/>
+      <c r="A54" s="120"/>
+      <c r="B54" s="128"/>
       <c r="C54" s="28"/>
       <c r="D54" s="89"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="138"/>
-      <c r="G54" s="206"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="96"/>
+      <c r="E54" s="175"/>
+      <c r="F54" s="176"/>
+      <c r="G54" s="177"/>
+      <c r="H54" s="148"/>
+      <c r="I54" s="108"/>
     </row>
     <row r="55" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="195"/>
-      <c r="B55" s="111"/>
+      <c r="A55" s="120"/>
+      <c r="B55" s="128"/>
       <c r="C55" s="4">
         <v>28</v>
       </c>
       <c r="D55" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="129" t="s">
+      <c r="E55" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="F55" s="130"/>
+      <c r="F55" s="114"/>
       <c r="G55" s="91" t="s">
         <v>108</v>
       </c>
@@ -3817,121 +3824,121 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="195"/>
-      <c r="B56" s="111"/>
+      <c r="A56" s="120"/>
+      <c r="B56" s="128"/>
       <c r="C56" s="4"/>
       <c r="D56" s="57"/>
-      <c r="E56" s="93" t="s">
+      <c r="E56" s="124" t="s">
         <v>39</v>
       </c>
       <c r="F56" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="G56" s="198"/>
-      <c r="H56" s="93" t="s">
+      <c r="G56" s="154"/>
+      <c r="H56" s="124" t="s">
         <v>2</v>
       </c>
       <c r="I56" s="38"/>
     </row>
     <row r="57" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="195"/>
-      <c r="B57" s="111"/>
+      <c r="A57" s="120"/>
+      <c r="B57" s="128"/>
       <c r="C57" s="6"/>
       <c r="D57" s="58"/>
-      <c r="E57" s="94"/>
+      <c r="E57" s="148"/>
       <c r="F57" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="199"/>
-      <c r="H57" s="94"/>
+      <c r="G57" s="155"/>
+      <c r="H57" s="148"/>
       <c r="I57" s="33"/>
     </row>
     <row r="58" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="195"/>
-      <c r="B58" s="110" t="s">
+      <c r="A58" s="120"/>
+      <c r="B58" s="127" t="s">
         <v>20</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="79"/>
-      <c r="E58" s="166" t="s">
+      <c r="E58" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="167"/>
-      <c r="G58" s="219" t="s">
+      <c r="F58" s="143"/>
+      <c r="G58" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="H58" s="93" t="s">
+      <c r="H58" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="I58" s="95" t="s">
+      <c r="I58" s="126" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="195"/>
-      <c r="B59" s="111"/>
-      <c r="C59" s="217" t="s">
+      <c r="A59" s="120"/>
+      <c r="B59" s="128"/>
+      <c r="C59" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="218" t="s">
+      <c r="D59" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="214"/>
-      <c r="F59" s="215"/>
-      <c r="G59" s="220" t="s">
+      <c r="E59" s="144"/>
+      <c r="F59" s="145"/>
+      <c r="G59" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="H59" s="158"/>
-      <c r="I59" s="159"/>
+      <c r="H59" s="125"/>
+      <c r="I59" s="107"/>
     </row>
     <row r="60" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="195"/>
-      <c r="B60" s="111"/>
-      <c r="C60" s="114"/>
-      <c r="D60" s="216"/>
-      <c r="E60" s="214"/>
-      <c r="F60" s="215"/>
-      <c r="G60" s="220" t="s">
+      <c r="A60" s="120"/>
+      <c r="B60" s="128"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="145"/>
+      <c r="G60" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="H60" s="158"/>
-      <c r="I60" s="159"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="107"/>
     </row>
     <row r="61" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="195"/>
-      <c r="B61" s="111"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="216"/>
-      <c r="E61" s="214"/>
-      <c r="F61" s="215"/>
-      <c r="G61" s="220" t="s">
+      <c r="A61" s="120"/>
+      <c r="B61" s="128"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="145"/>
+      <c r="G61" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="H61" s="158"/>
-      <c r="I61" s="159"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="107"/>
     </row>
     <row r="62" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="195"/>
-      <c r="B62" s="111"/>
+      <c r="A62" s="120"/>
+      <c r="B62" s="128"/>
       <c r="C62" s="6"/>
       <c r="D62" s="86"/>
-      <c r="E62" s="202"/>
-      <c r="F62" s="203"/>
-      <c r="G62" s="221" t="s">
+      <c r="E62" s="146"/>
+      <c r="F62" s="147"/>
+      <c r="G62" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="H62" s="94"/>
-      <c r="I62" s="96"/>
+      <c r="H62" s="148"/>
+      <c r="I62" s="108"/>
     </row>
     <row r="63" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="195"/>
-      <c r="B63" s="111"/>
+      <c r="A63" s="120"/>
+      <c r="B63" s="128"/>
       <c r="C63" s="4"/>
       <c r="D63" s="57"/>
-      <c r="E63" s="156" t="s">
+      <c r="E63" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="F63" s="157"/>
+      <c r="F63" s="116"/>
       <c r="G63" s="8"/>
       <c r="H63" s="82" t="s">
         <v>2</v>
@@ -3939,31 +3946,31 @@
       <c r="I63" s="83"/>
     </row>
     <row r="64" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="195"/>
-      <c r="B64" s="112"/>
+      <c r="A64" s="120"/>
+      <c r="B64" s="129"/>
       <c r="C64" s="55"/>
       <c r="D64" s="60"/>
-      <c r="E64" s="156" t="s">
+      <c r="E64" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="157"/>
+      <c r="F64" s="116"/>
       <c r="G64" s="9"/>
-      <c r="H64" s="147" t="s">
+      <c r="H64" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="I64" s="148"/>
+      <c r="I64" s="118"/>
     </row>
     <row r="65" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="195"/>
-      <c r="B65" s="110" t="s">
+      <c r="A65" s="120"/>
+      <c r="B65" s="127" t="s">
         <v>21</v>
       </c>
       <c r="C65" s="28"/>
       <c r="D65" s="86"/>
-      <c r="E65" s="160" t="s">
+      <c r="E65" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="F65" s="161"/>
+      <c r="F65" s="150"/>
       <c r="G65" s="40"/>
       <c r="H65" s="41" t="s">
         <v>22</v>
@@ -3971,33 +3978,33 @@
       <c r="I65" s="47"/>
     </row>
     <row r="66" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="195"/>
-      <c r="B66" s="111"/>
+      <c r="A66" s="120"/>
+      <c r="B66" s="128"/>
       <c r="C66" s="4">
         <v>16</v>
       </c>
       <c r="D66" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E66" s="149" t="s">
+      <c r="E66" s="208" t="s">
         <v>109</v>
       </c>
-      <c r="F66" s="150"/>
+      <c r="F66" s="209"/>
       <c r="G66" s="52"/>
       <c r="H66" s="45"/>
       <c r="I66" s="43"/>
     </row>
     <row r="67" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="195"/>
-      <c r="B67" s="111"/>
+      <c r="A67" s="120"/>
+      <c r="B67" s="128"/>
       <c r="C67" s="28">
         <v>17</v>
       </c>
       <c r="D67" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="151"/>
-      <c r="F67" s="152"/>
+      <c r="E67" s="210"/>
+      <c r="F67" s="211"/>
       <c r="G67" s="30" t="s">
         <v>110</v>
       </c>
@@ -4009,16 +4016,16 @@
       </c>
     </row>
     <row r="68" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="195"/>
-      <c r="B68" s="111"/>
+      <c r="A68" s="120"/>
+      <c r="B68" s="128"/>
       <c r="C68" s="28">
         <v>23</v>
       </c>
       <c r="D68" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="E68" s="151"/>
-      <c r="F68" s="152"/>
+      <c r="E68" s="210"/>
+      <c r="F68" s="211"/>
       <c r="G68" s="30" t="s">
         <v>111</v>
       </c>
@@ -4028,16 +4035,16 @@
       <c r="I68" s="51"/>
     </row>
     <row r="69" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="195"/>
-      <c r="B69" s="112"/>
+      <c r="A69" s="120"/>
+      <c r="B69" s="129"/>
       <c r="C69" s="28">
         <v>24</v>
       </c>
       <c r="D69" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="151"/>
-      <c r="F69" s="152"/>
+      <c r="E69" s="210"/>
+      <c r="F69" s="211"/>
       <c r="G69" s="31"/>
       <c r="H69" s="50"/>
       <c r="I69" s="53"/>
@@ -4065,95 +4072,99 @@
       <c r="AG69" s="44"/>
     </row>
     <row r="70" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="195"/>
-      <c r="B70" s="110" t="s">
+      <c r="A70" s="120"/>
+      <c r="B70" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="C70" s="113" t="s">
+      <c r="C70" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="223" t="s">
+      <c r="D70" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="E70" s="209"/>
-      <c r="F70" s="210"/>
-      <c r="G70" s="204" t="s">
+      <c r="E70" s="94"/>
+      <c r="F70" s="95"/>
+      <c r="G70" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="H70" s="93" t="s">
+      <c r="H70" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="I70" s="95"/>
+      <c r="I70" s="126" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="71" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="195"/>
-      <c r="B71" s="111"/>
-      <c r="C71" s="114"/>
-      <c r="D71" s="216"/>
-      <c r="E71" s="158" t="s">
+      <c r="A71" s="120"/>
+      <c r="B71" s="128"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="102"/>
+      <c r="E71" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="F71" s="211"/>
-      <c r="G71" s="205"/>
-      <c r="H71" s="158"/>
-      <c r="I71" s="159"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="123"/>
+      <c r="H71" s="125"/>
+      <c r="I71" s="107"/>
     </row>
     <row r="72" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="195"/>
-      <c r="B72" s="111"/>
-      <c r="C72" s="115"/>
-      <c r="D72" s="222"/>
-      <c r="E72" s="158"/>
-      <c r="F72" s="211"/>
-      <c r="G72" s="205"/>
-      <c r="H72" s="158"/>
-      <c r="I72" s="159"/>
+      <c r="A72" s="120"/>
+      <c r="B72" s="128"/>
+      <c r="C72" s="110"/>
+      <c r="D72" s="112"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="123"/>
+      <c r="H72" s="125"/>
+      <c r="I72" s="107"/>
     </row>
     <row r="73" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="195"/>
-      <c r="B73" s="111"/>
+      <c r="A73" s="120"/>
+      <c r="B73" s="128"/>
       <c r="C73" s="4">
         <v>21</v>
       </c>
       <c r="D73" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="E73" s="166" t="s">
+      <c r="E73" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="F73" s="167"/>
+      <c r="F73" s="143"/>
       <c r="G73" s="212" t="s">
         <v>119</v>
       </c>
-      <c r="H73" s="93" t="s">
+      <c r="H73" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="I73" s="95"/>
+      <c r="I73" s="126" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="74" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="195"/>
-      <c r="B74" s="111"/>
+      <c r="A74" s="120"/>
+      <c r="B74" s="128"/>
       <c r="C74" s="6">
         <v>22</v>
       </c>
       <c r="D74" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E74" s="202"/>
-      <c r="F74" s="203"/>
+      <c r="E74" s="146"/>
+      <c r="F74" s="147"/>
       <c r="G74" s="213"/>
-      <c r="H74" s="94"/>
-      <c r="I74" s="96"/>
+      <c r="H74" s="148"/>
+      <c r="I74" s="108"/>
     </row>
     <row r="75" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="208"/>
-      <c r="B75" s="112"/>
+      <c r="A75" s="121"/>
+      <c r="B75" s="129"/>
       <c r="C75" s="28"/>
       <c r="D75" s="59"/>
-      <c r="E75" s="94" t="s">
+      <c r="E75" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="101"/>
+      <c r="F75" s="190"/>
       <c r="G75" s="7"/>
       <c r="H75" s="46" t="s">
         <v>15</v>
@@ -4161,10 +4172,10 @@
       <c r="I75" s="49"/>
     </row>
     <row r="76" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="207" t="s">
+      <c r="A76" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="110" t="s">
+      <c r="B76" s="127" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="4">
@@ -4173,10 +4184,10 @@
       <c r="D76" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="E76" s="103" t="s">
+      <c r="E76" s="130" t="s">
         <v>120</v>
       </c>
-      <c r="F76" s="153"/>
+      <c r="F76" s="131"/>
       <c r="G76" s="84" t="s">
         <v>122</v>
       </c>
@@ -4186,58 +4197,58 @@
       <c r="I76" s="88"/>
     </row>
     <row r="77" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="195"/>
-      <c r="B77" s="111"/>
+      <c r="A77" s="120"/>
+      <c r="B77" s="128"/>
       <c r="C77" s="4">
         <v>13</v>
       </c>
       <c r="D77" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="E77" s="103" t="s">
+      <c r="E77" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="F77" s="153"/>
-      <c r="G77" s="119" t="s">
+      <c r="F77" s="131"/>
+      <c r="G77" s="136" t="s">
         <v>123</v>
       </c>
-      <c r="H77" s="103" t="s">
+      <c r="H77" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="I77" s="124"/>
+      <c r="I77" s="139"/>
     </row>
     <row r="78" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="195"/>
-      <c r="B78" s="111"/>
+      <c r="A78" s="120"/>
+      <c r="B78" s="128"/>
       <c r="C78" s="28">
         <v>25</v>
       </c>
       <c r="D78" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="122"/>
-      <c r="F78" s="154"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="122"/>
-      <c r="I78" s="125"/>
+      <c r="E78" s="132"/>
+      <c r="F78" s="133"/>
+      <c r="G78" s="137"/>
+      <c r="H78" s="132"/>
+      <c r="I78" s="140"/>
     </row>
     <row r="79" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="195"/>
-      <c r="B79" s="112"/>
+      <c r="A79" s="120"/>
+      <c r="B79" s="129"/>
       <c r="C79" s="6">
         <v>26</v>
       </c>
       <c r="D79" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E79" s="123"/>
-      <c r="F79" s="155"/>
-      <c r="G79" s="121"/>
-      <c r="H79" s="123"/>
-      <c r="I79" s="126"/>
+      <c r="E79" s="134"/>
+      <c r="F79" s="135"/>
+      <c r="G79" s="138"/>
+      <c r="H79" s="134"/>
+      <c r="I79" s="141"/>
     </row>
     <row r="80" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="208"/>
+      <c r="A80" s="121"/>
       <c r="B80" s="18" t="s">
         <v>16</v>
       </c>
@@ -4248,10 +4259,10 @@
       </c>
       <c r="F80" s="14"/>
       <c r="G80" s="9"/>
-      <c r="H80" s="147" t="s">
+      <c r="H80" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="I80" s="148"/>
+      <c r="I80" s="118"/>
     </row>
     <row r="81" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="19"/>
@@ -4324,51 +4335,60 @@
     </row>
     <row r="90" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="124">
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A4:A75"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="E71:F72"/>
-    <mergeCell ref="E77:F79"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="E58:F62"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="I58:I62"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="E27:F29"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F54"/>
-    <mergeCell ref="G52:G54"/>
+  <mergeCells count="123">
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="B47:B57"/>
+    <mergeCell ref="E33:F35"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="E66:F69"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B31:B40"/>
+    <mergeCell ref="B41:B46"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="E17:F19"/>
     <mergeCell ref="E12:F13"/>
@@ -4393,62 +4413,52 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="E66:F69"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E73:F74"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="A4:A75"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="E77:F79"/>
+    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="E58:F62"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="E27:F29"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F54"/>
+    <mergeCell ref="G52:G54"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="H58:H62"/>
-    <mergeCell ref="B31:B40"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="B47:B57"/>
-    <mergeCell ref="E33:F35"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H36:H37"/>
     <mergeCell ref="I36:I37"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/平成31年度/04_総会資料/2. 令和元年度 活動報告.xlsx
+++ b/平成31年度/04_総会資料/2. 令和元年度 活動報告.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\04_総会資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63002D4B-65B1-44EA-A162-2234A7C4EFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70057C27-BC37-447E-9D37-6213769FB491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="155">
   <si>
     <t>４月</t>
     <rPh sb="1" eb="2">
@@ -247,31 +247,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>第回　小千谷協会長杯ミニバスケットボール大会</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>オヂヤ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キョウカイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>タイカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>第回　ひなまつり杯ミニバスケットボール大会</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
@@ -297,19 +272,6 @@
   </si>
   <si>
     <t>チャレンジマッチ２０１９（富山遠征）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第回　巣本カップ</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>スモト</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1193,22 +1155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>第回　団九郎カップ</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ダン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>クロウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>参加</t>
     <rPh sb="0" eb="2">
       <t>サンカ</t>
@@ -1235,10 +1181,6 @@
     <rPh sb="0" eb="2">
       <t>コバリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第回　ＹＯＫＯカップミニバスケットボール大会</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1330,6 +1272,153 @@
     </rPh>
     <rPh sb="6" eb="9">
       <t>ショウガッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小千谷市小千谷総合体育館</t>
+    <rPh sb="0" eb="4">
+      <t>オヂヤシ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>オヂヤ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>タイイクカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田上町田上町民体育館</t>
+    <rPh sb="0" eb="3">
+      <t>タガミマチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タガミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウミン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>タイイクカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新潟市中ノ口体育館</t>
+    <rPh sb="0" eb="3">
+      <t>ニイガタシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>タイイクカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新潟市亀田総合体育館</t>
+    <rPh sb="3" eb="5">
+      <t>カメダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>タイイクカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長岡市栃尾体育館</t>
+    <rPh sb="0" eb="3">
+      <t>ナガオカシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トチオ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>タイイクカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村町体育館さくらアリーナ</t>
+  </si>
+  <si>
+    <t>村町体育館さくらアリーナ</t>
+    <rPh sb="0" eb="1">
+      <t>ムラ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>タイイクカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滑川小学校
+滑川総合体育館</t>
+    <rPh sb="0" eb="2">
+      <t>ナメリカワ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ショウガッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナメリカワ</t>
+    </rPh>
+    <rPh sb="8" eb="13">
+      <t>ソウゴウタイイクカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巣本カップ</t>
+    <rPh sb="0" eb="2">
+      <t>スモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＹＯＫＯカップミニバスケットボール大会</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団九郎カップ</t>
+    <rPh sb="0" eb="1">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>クロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小千谷協会長杯ミニバスケットボール大会</t>
+    <rPh sb="0" eb="3">
+      <t>オヂヤ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1434,7 +1523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1444,12 +1533,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1637,7 +1720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1674,12 +1757,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -1725,279 +1802,411 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2013,338 +2222,32 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2696,1806 +2599,1931 @@
     <col min="1" max="1" width="3.6640625" style="10"/>
     <col min="2" max="2" width="5.6640625" style="10" customWidth="1"/>
     <col min="3" max="3" width="3.88671875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="20" customWidth="1"/>
     <col min="7" max="7" width="19.21875" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="3.6640625" style="10"/>
     <col min="14" max="14" width="3.109375" style="10" customWidth="1"/>
     <col min="15" max="16384" width="3.6640625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
     </row>
     <row r="3" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="133" t="s">
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="134"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="133" t="s">
+      <c r="H3" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="134"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="185" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="100" t="s">
+      <c r="A4" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="4">
         <v>9</v>
       </c>
-      <c r="D4" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="215" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="216"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="174" t="s">
+      <c r="D4" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="168" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="169"/>
+      <c r="G4" s="157" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="148" t="s">
-        <v>127</v>
+      <c r="I4" s="77" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="186"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="27">
+      <c r="A5" s="73"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="25">
         <v>10</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="170"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="78"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="73"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="36">
+        <v>10</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="107"/>
+      <c r="G6" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="73"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="35">
+        <v>11</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="127" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="128"/>
+      <c r="G7" s="133" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="73"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="45">
+        <v>17</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="131"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="151"/>
+    </row>
+    <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="73"/>
+      <c r="B9" s="81" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" s="217"/>
-      <c r="F5" s="218"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="149"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="186"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="61">
-        <v>10</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="140" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="141"/>
-      <c r="G6" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="186"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="53">
-        <v>11</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="132" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="139"/>
-      <c r="G7" s="151" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="132" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="150" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="186"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="54">
-        <v>17</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="172"/>
-      <c r="I8" s="184"/>
-    </row>
-    <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="186"/>
-      <c r="B9" s="167" t="s">
-        <v>32</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="115" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="163"/>
-      <c r="G9" s="170" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="132" t="s">
+      <c r="D9" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="144"/>
+      <c r="G9" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="150" t="s">
-        <v>129</v>
+      <c r="I9" s="91" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="186"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="27">
+      <c r="A10" s="73"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="25">
         <v>3</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="184"/>
+      <c r="D10" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="86"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="151"/>
     </row>
     <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="186"/>
-      <c r="B11" s="168"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="4">
         <v>9</v>
       </c>
-      <c r="D11" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="181" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="182"/>
-      <c r="G11" s="180" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="132" t="s">
+      <c r="D11" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="149" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="150"/>
+      <c r="G11" s="148" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="150" t="s">
-        <v>129</v>
+      <c r="I11" s="91" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="186"/>
-      <c r="B12" s="168"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="6">
         <v>10</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="149"/>
+      <c r="D12" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="78"/>
     </row>
     <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="186"/>
-      <c r="B13" s="168"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="4">
         <v>16</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="144"/>
+      <c r="G13" s="146" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="163"/>
-      <c r="G13" s="165" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="115" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="148" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="186"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="27">
+      <c r="A14" s="73"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="25">
         <v>17</v>
       </c>
-      <c r="D14" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="149"/>
+      <c r="D14" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="86"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="78"/>
     </row>
     <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="186"/>
-      <c r="B15" s="168"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="4">
         <v>30</v>
       </c>
-      <c r="D15" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="215" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="216"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="174" t="s">
+      <c r="D15" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="168" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="169"/>
+      <c r="G15" s="157" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="148" t="s">
-        <v>131</v>
+      <c r="I15" s="77" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="186"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="27">
+      <c r="A16" s="73"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="25">
         <v>31</v>
       </c>
-      <c r="D16" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="217"/>
-      <c r="F16" s="218"/>
-      <c r="G16" s="220"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="149"/>
+      <c r="D16" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="170"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="78"/>
     </row>
     <row r="17" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="186"/>
-      <c r="B17" s="168"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="4">
         <v>30</v>
       </c>
-      <c r="D17" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="115" t="s">
+      <c r="D17" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="144"/>
+      <c r="G17" s="146" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="73"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="25">
+        <v>31</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="86"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="78"/>
+    </row>
+    <row r="19" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="73"/>
+      <c r="B19" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="163"/>
-      <c r="G17" s="165" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="115" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="150" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="186"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="27">
-        <v>31</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="116"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="149"/>
-    </row>
-    <row r="19" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="186"/>
-      <c r="B19" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="103" t="s">
+      <c r="F19" s="140"/>
+      <c r="G19" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="106" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="174" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="176"/>
-      <c r="G19" s="151" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="119" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" s="150" t="s">
-        <v>132</v>
+      <c r="H19" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="91" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="186"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="183"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="92"/>
     </row>
     <row r="21" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="186"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="149"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="78"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
     </row>
     <row r="22" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="186"/>
-      <c r="B22" s="88"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="6">
         <v>28</v>
       </c>
-      <c r="D22" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="146" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="147"/>
-      <c r="G22" s="221"/>
-      <c r="H22" s="84" t="s">
+      <c r="D22" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="99"/>
+      <c r="G22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="85" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="37"/>
-      <c r="AF22" s="37"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
+      <c r="I22" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
     </row>
     <row r="23" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="186"/>
-      <c r="B23" s="100" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="208">
+      <c r="A23" s="73"/>
+      <c r="B23" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="172">
         <v>5</v>
       </c>
-      <c r="D23" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="222" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="223"/>
-      <c r="G23" s="226"/>
-      <c r="H23" s="174" t="s">
+      <c r="D23" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="173"/>
+      <c r="G23" s="157" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="148" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
+      <c r="I23" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
     </row>
     <row r="24" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="186"/>
-      <c r="B24" s="101"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="6">
         <v>6</v>
       </c>
-      <c r="D24" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="224"/>
-      <c r="F24" s="225"/>
-      <c r="G24" s="227"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="149"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="37"/>
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="37"/>
-      <c r="AH24" s="37"/>
+      <c r="D24" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="76"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="78"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
     </row>
     <row r="25" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="186"/>
-      <c r="B25" s="101"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="4">
         <v>11</v>
       </c>
-      <c r="D25" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="160" t="s">
+      <c r="D25" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="161"/>
+      <c r="F25" s="139"/>
       <c r="G25" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="134"/>
+      <c r="I25" s="80"/>
     </row>
     <row r="26" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="186"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="76">
+      <c r="A26" s="73"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="4">
         <v>11</v>
       </c>
-      <c r="D26" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="157" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="95"/>
-      <c r="G26" s="155" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="174" t="s">
+      <c r="D26" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="173"/>
+      <c r="G26" s="157" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="148" t="s">
-        <v>38</v>
-      </c>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
+      <c r="I26" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
     </row>
     <row r="27" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="186"/>
-      <c r="B27" s="102"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="83"/>
       <c r="C27" s="6">
         <v>12</v>
       </c>
-      <c r="D27" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="96"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="149"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
+      <c r="D27" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="76"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="78"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
     </row>
     <row r="28" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="186"/>
-      <c r="B28" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="76">
+      <c r="A28" s="73"/>
+      <c r="B28" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="4">
         <v>15</v>
       </c>
-      <c r="D28" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="95"/>
-      <c r="G28" s="98" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="35" t="s">
+      <c r="D28" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="173"/>
+      <c r="G28" s="167" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
+      <c r="I28" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
     </row>
     <row r="29" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="186"/>
-      <c r="B29" s="101"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="6">
         <v>16</v>
       </c>
-      <c r="D29" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="35" t="s">
+      <c r="D29" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="76"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="37"/>
+      <c r="I29" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
     </row>
     <row r="30" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="186"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="86">
+      <c r="A30" s="73"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="45">
         <v>22</v>
       </c>
-      <c r="D30" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="158" t="s">
+      <c r="D30" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="84"/>
+      <c r="G30" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="73"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="101"/>
+      <c r="G31" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="73"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="92"/>
+    </row>
+    <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="73"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="78"/>
+    </row>
+    <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="73"/>
+      <c r="B34" s="82" t="s">
         <v>60</v>
-      </c>
-      <c r="F30" s="159"/>
-      <c r="G30" s="228"/>
-      <c r="H30" s="209" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="87" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="186"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="103" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="202" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="203"/>
-      <c r="G31" s="151" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" s="119" t="s">
-        <v>122</v>
-      </c>
-      <c r="I31" s="150" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="186"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="204"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="183"/>
-    </row>
-    <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="186"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="149"/>
-    </row>
-    <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="186"/>
-      <c r="B34" s="101" t="s">
-        <v>62</v>
       </c>
       <c r="C34" s="4">
         <v>6</v>
       </c>
-      <c r="D34" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="174" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="176"/>
+      <c r="D34" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="140"/>
       <c r="G34" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="34" t="s">
-        <v>50</v>
+      <c r="I34" s="58" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="186"/>
-      <c r="B35" s="101"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="6">
         <v>7</v>
       </c>
-      <c r="D35" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="158"/>
-      <c r="F35" s="159"/>
+      <c r="D35" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="76"/>
+      <c r="F35" s="84"/>
       <c r="G35" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I35" s="31" t="s">
-        <v>131</v>
+      <c r="I35" s="59" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="186"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="110"/>
-      <c r="G36" s="126" t="s">
+      <c r="A36" s="73"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="115" t="s">
+      <c r="F36" s="118"/>
+      <c r="G36" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="148" t="s">
-        <v>48</v>
+      <c r="I36" s="77" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="186"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="27">
+      <c r="A37" s="73"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="25">
         <v>14</v>
       </c>
-      <c r="D37" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="111"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="183"/>
+      <c r="D37" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="119"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="92"/>
     </row>
     <row r="38" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="186"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="149"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="78"/>
     </row>
     <row r="39" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="186"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="4">
         <v>20</v>
       </c>
-      <c r="D39" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="132" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="129"/>
-      <c r="G39" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" s="115" t="s">
+      <c r="D39" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="127" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="116"/>
+      <c r="G39" s="167" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="148" t="s">
-        <v>48</v>
+      <c r="I39" s="77" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="186"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="6">
         <v>21</v>
       </c>
-      <c r="D40" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="116"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="149"/>
+      <c r="D40" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="86"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="78"/>
     </row>
     <row r="41" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="186"/>
-      <c r="B41" s="101"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="4">
         <v>27</v>
       </c>
-      <c r="D41" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="115" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="129"/>
+      <c r="D41" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="116"/>
       <c r="G41" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="63" t="s">
-        <v>55</v>
+      <c r="I41" s="58" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="186"/>
-      <c r="B42" s="101"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="6">
         <v>28</v>
       </c>
-      <c r="D42" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="116"/>
-      <c r="F42" s="130"/>
+      <c r="D42" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="86"/>
+      <c r="F42" s="152"/>
       <c r="G42" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I42" s="64" t="s">
-        <v>131</v>
+      <c r="I42" s="59" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="186"/>
-      <c r="B43" s="100" t="s">
+      <c r="A43" s="73"/>
+      <c r="B43" s="81" t="s">
         <v>18</v>
       </c>
       <c r="C43" s="4">
         <v>10</v>
       </c>
-      <c r="D43" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" s="129"/>
+      <c r="D43" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="116"/>
       <c r="G43" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="34" t="s">
-        <v>48</v>
+      <c r="I43" s="58" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="186"/>
-      <c r="B44" s="101"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="82"/>
       <c r="C44" s="6">
         <v>11</v>
       </c>
-      <c r="D44" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="116"/>
-      <c r="F44" s="130"/>
+      <c r="D44" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="86"/>
+      <c r="F44" s="152"/>
       <c r="G44" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I44" s="31" t="s">
-        <v>131</v>
+      <c r="I44" s="59" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="186"/>
-      <c r="B45" s="101"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="82"/>
       <c r="C45" s="4">
         <v>24</v>
       </c>
-      <c r="D45" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="140" t="s">
-        <v>72</v>
-      </c>
-      <c r="F45" s="141"/>
-      <c r="G45" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="H45" s="115" t="s">
+      <c r="D45" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="107"/>
+      <c r="G45" s="161" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="148" t="s">
-        <v>48</v>
+      <c r="I45" s="77" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="186"/>
-      <c r="B46" s="101"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="82"/>
       <c r="C46" s="6">
         <v>25</v>
       </c>
-      <c r="D46" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="142"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="149"/>
+      <c r="D46" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="108"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="78"/>
     </row>
     <row r="47" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="186"/>
-      <c r="B47" s="100" t="s">
+      <c r="A47" s="73"/>
+      <c r="B47" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="47">
+      <c r="C47" s="32">
         <v>1</v>
       </c>
-      <c r="D47" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="F47" s="33"/>
+      <c r="D47" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" s="65"/>
       <c r="G47" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="34" t="s">
-        <v>58</v>
+      <c r="I47" s="58" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="186"/>
-      <c r="B48" s="101"/>
-      <c r="C48" s="103" t="s">
+      <c r="A48" s="73"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="162"/>
+      <c r="G48" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="106" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="119" t="s">
-        <v>81</v>
-      </c>
-      <c r="F48" s="120"/>
-      <c r="G48" s="126" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="119" t="s">
-        <v>122</v>
-      </c>
-      <c r="I48" s="233" t="s">
-        <v>34</v>
+      <c r="H48" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="91" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="186"/>
-      <c r="B49" s="101"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="122"/>
-      <c r="G49" s="127"/>
-      <c r="H49" s="177"/>
-      <c r="I49" s="234"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="163"/>
+      <c r="F49" s="164"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="92"/>
     </row>
     <row r="50" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="186"/>
-      <c r="B50" s="101"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="123"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="128"/>
-      <c r="H50" s="158"/>
-      <c r="I50" s="235"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="165"/>
+      <c r="F50" s="166"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="78"/>
     </row>
     <row r="51" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="186"/>
-      <c r="B51" s="101"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="82"/>
       <c r="C51" s="4">
         <v>7</v>
       </c>
-      <c r="D51" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E51" s="115" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" s="36"/>
-      <c r="G51" s="229"/>
-      <c r="H51" s="115" t="s">
+      <c r="D51" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="28"/>
+      <c r="G51" s="146" t="s">
+        <v>149</v>
+      </c>
+      <c r="H51" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="I51" s="148" t="s">
-        <v>38</v>
+      <c r="I51" s="77" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="186"/>
-      <c r="B52" s="101"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="82"/>
       <c r="C52" s="6">
         <v>8</v>
       </c>
-      <c r="D52" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="116"/>
+      <c r="D52" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="86"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="230"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="149"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="78"/>
     </row>
     <row r="53" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="186"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="47">
+      <c r="A53" s="73"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="32">
         <v>15</v>
       </c>
-      <c r="D53" s="51" t="s">
+      <c r="D53" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="116"/>
+      <c r="G53" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="115" t="s">
-        <v>85</v>
-      </c>
-      <c r="F53" s="129"/>
-      <c r="G53" s="73" t="s">
+    </row>
+    <row r="54" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="73"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="H53" s="68" t="s">
+      <c r="F54" s="118"/>
+      <c r="G54" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I53" s="69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="186"/>
-      <c r="B54" s="101"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="109" t="s">
-        <v>89</v>
-      </c>
-      <c r="F54" s="110"/>
-      <c r="G54" s="210" t="s">
-        <v>138</v>
-      </c>
-      <c r="H54" s="115" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="148" t="s">
-        <v>38</v>
+      <c r="I54" s="77" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="186"/>
-      <c r="B55" s="101"/>
-      <c r="C55" s="27">
+      <c r="A55" s="73"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="25">
         <v>21</v>
       </c>
-      <c r="D55" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="111"/>
-      <c r="F55" s="112"/>
-      <c r="G55" s="211"/>
-      <c r="H55" s="125"/>
-      <c r="I55" s="183"/>
+      <c r="D55" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="119"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="126"/>
+      <c r="I55" s="92"/>
     </row>
     <row r="56" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="186"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="212"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="149"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="121"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="78"/>
     </row>
     <row r="57" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="186"/>
-      <c r="B57" s="101"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="82"/>
       <c r="C57" s="4">
         <v>28</v>
       </c>
-      <c r="D57" s="66" t="s">
+      <c r="D57" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57" s="99"/>
+      <c r="G57" s="55" t="s">
         <v>91</v>
-      </c>
-      <c r="E57" s="200" t="s">
-        <v>90</v>
-      </c>
-      <c r="F57" s="201"/>
-      <c r="G57" s="77" t="s">
-        <v>93</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="69" t="s">
-        <v>92</v>
+      <c r="I57" s="58" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="186"/>
-      <c r="B58" s="100" t="s">
+      <c r="A58" s="73"/>
+      <c r="B58" s="81" t="s">
         <v>19</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="140" t="s">
+      <c r="D58" s="38"/>
+      <c r="E58" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" s="107"/>
+      <c r="G58" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="H58" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="73"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="141" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="F58" s="141"/>
-      <c r="G58" s="81" t="s">
+      <c r="E59" s="136"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="H59" s="126"/>
+      <c r="I59" s="92"/>
+    </row>
+    <row r="60" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="73"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="136"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="H58" s="115" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" s="148" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="186"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="195" t="s">
-        <v>111</v>
-      </c>
-      <c r="D59" s="196" t="s">
-        <v>112</v>
-      </c>
-      <c r="E59" s="193"/>
-      <c r="F59" s="194"/>
-      <c r="G59" s="82" t="s">
+      <c r="H60" s="126"/>
+      <c r="I60" s="92"/>
+    </row>
+    <row r="61" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="73"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="136"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="H59" s="125"/>
-      <c r="I59" s="183"/>
-    </row>
-    <row r="60" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="186"/>
-      <c r="B60" s="101"/>
-      <c r="C60" s="104"/>
-      <c r="D60" s="197"/>
-      <c r="E60" s="193"/>
-      <c r="F60" s="194"/>
-      <c r="G60" s="82" t="s">
+      <c r="H61" s="126"/>
+      <c r="I61" s="92"/>
+    </row>
+    <row r="62" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="73"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="H60" s="125"/>
-      <c r="I60" s="183"/>
-    </row>
-    <row r="61" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="186"/>
-      <c r="B61" s="101"/>
-      <c r="C61" s="104"/>
-      <c r="D61" s="197"/>
-      <c r="E61" s="193"/>
-      <c r="F61" s="194"/>
-      <c r="G61" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="H61" s="125"/>
-      <c r="I61" s="183"/>
-    </row>
-    <row r="62" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="186"/>
-      <c r="B62" s="101"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="142"/>
-      <c r="F62" s="143"/>
-      <c r="G62" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="H62" s="116"/>
-      <c r="I62" s="149"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="78"/>
     </row>
     <row r="63" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="186"/>
-      <c r="B63" s="102"/>
-      <c r="C63" s="47">
+      <c r="A63" s="73"/>
+      <c r="B63" s="83"/>
+      <c r="C63" s="32">
         <v>19</v>
       </c>
-      <c r="D63" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="E63" s="144" t="s">
+      <c r="D63" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="145"/>
+      <c r="F63" s="116"/>
       <c r="G63" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H63" s="133" t="s">
+        <v>142</v>
+      </c>
+      <c r="H63" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="I63" s="134"/>
+      <c r="I63" s="80"/>
     </row>
     <row r="64" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="186"/>
-      <c r="B64" s="101" t="s">
-        <v>140</v>
+      <c r="A64" s="73"/>
+      <c r="B64" s="82" t="s">
+        <v>136</v>
       </c>
       <c r="C64" s="4">
         <v>9</v>
       </c>
-      <c r="D64" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="F64" s="36"/>
-      <c r="G64" s="229"/>
-      <c r="H64" s="115" t="s">
+      <c r="D64" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="28"/>
+      <c r="G64" s="133" t="s">
+        <v>150</v>
+      </c>
+      <c r="H64" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="I64" s="148" t="s">
-        <v>141</v>
+      <c r="I64" s="77" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="186"/>
-      <c r="B65" s="101"/>
+      <c r="A65" s="73"/>
+      <c r="B65" s="82"/>
       <c r="C65" s="6">
         <v>10</v>
       </c>
-      <c r="D65" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" s="116"/>
+      <c r="D65" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="86"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="230"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="149"/>
+      <c r="G65" s="154"/>
+      <c r="H65" s="86"/>
+      <c r="I65" s="78"/>
     </row>
     <row r="66" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="186"/>
-      <c r="B66" s="101"/>
+      <c r="A66" s="73"/>
+      <c r="B66" s="82"/>
       <c r="C66" s="4">
         <v>16</v>
       </c>
-      <c r="D66" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E66" s="135" t="s">
+      <c r="D66" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="127" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="128"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="28"/>
+    </row>
+    <row r="67" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="73"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="25">
+        <v>17</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="129"/>
+      <c r="F67" s="130"/>
+      <c r="G67" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H67" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="73"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="25">
+        <v>23</v>
+      </c>
+      <c r="D68" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="129"/>
+      <c r="F68" s="130"/>
+      <c r="G68" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="F66" s="136"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="36"/>
-    </row>
-    <row r="67" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="186"/>
-      <c r="B67" s="101"/>
-      <c r="C67" s="27">
-        <v>17</v>
-      </c>
-      <c r="D67" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E67" s="137"/>
-      <c r="F67" s="138"/>
-      <c r="G67" s="29" t="s">
+      <c r="H68" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="73"/>
+      <c r="B69" s="83"/>
+      <c r="C69" s="25">
+        <v>24</v>
+      </c>
+      <c r="D69" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="129"/>
+      <c r="F69" s="130"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="30"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="29"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="29"/>
+      <c r="X69" s="29"/>
+      <c r="Y69" s="29"/>
+      <c r="Z69" s="29"/>
+      <c r="AA69" s="29"/>
+      <c r="AB69" s="29"/>
+      <c r="AC69" s="29"/>
+      <c r="AD69" s="29"/>
+      <c r="AE69" s="29"/>
+      <c r="AF69" s="29"/>
+      <c r="AG69" s="29"/>
+    </row>
+    <row r="70" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="73"/>
+      <c r="B70" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="H67" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="I67" s="43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="186"/>
-      <c r="B68" s="101"/>
-      <c r="C68" s="27">
-        <v>23</v>
-      </c>
-      <c r="D68" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="E68" s="137"/>
-      <c r="F68" s="138"/>
-      <c r="G68" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="H68" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="I68" s="43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="186"/>
-      <c r="B69" s="102"/>
-      <c r="C69" s="27">
-        <v>24</v>
-      </c>
-      <c r="D69" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E69" s="137"/>
-      <c r="F69" s="138"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="45"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
-      <c r="Y69" s="37"/>
-      <c r="Z69" s="37"/>
-      <c r="AA69" s="37"/>
-      <c r="AB69" s="37"/>
-      <c r="AC69" s="37"/>
-      <c r="AD69" s="37"/>
-      <c r="AE69" s="37"/>
-      <c r="AF69" s="37"/>
-      <c r="AG69" s="37"/>
-    </row>
-    <row r="70" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="186"/>
-      <c r="B70" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70" s="103" t="s">
+      <c r="C70" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" s="39"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="123" t="s">
+        <v>100</v>
+      </c>
+      <c r="H70" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="D70" s="198" t="s">
-        <v>124</v>
-      </c>
-      <c r="E70" s="79"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="210" t="s">
-        <v>102</v>
-      </c>
-      <c r="H70" s="115" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" s="148" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="71" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="186"/>
-      <c r="B71" s="101"/>
-      <c r="C71" s="104"/>
-      <c r="D71" s="197"/>
-      <c r="E71" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="F71" s="45"/>
-      <c r="G71" s="211"/>
-      <c r="H71" s="125"/>
-      <c r="I71" s="183"/>
+      <c r="A71" s="73"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="88"/>
+      <c r="E71" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" s="30"/>
+      <c r="G71" s="124"/>
+      <c r="H71" s="126"/>
+      <c r="I71" s="92"/>
     </row>
     <row r="72" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="186"/>
-      <c r="B72" s="101"/>
-      <c r="C72" s="105"/>
-      <c r="D72" s="199"/>
-      <c r="E72" s="78"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="211"/>
-      <c r="H72" s="125"/>
-      <c r="I72" s="183"/>
+      <c r="A72" s="73"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="124"/>
+      <c r="H72" s="126"/>
+      <c r="I72" s="92"/>
     </row>
     <row r="73" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="186"/>
-      <c r="B73" s="101"/>
+      <c r="A73" s="73"/>
+      <c r="B73" s="82"/>
       <c r="C73" s="4">
         <v>21</v>
       </c>
-      <c r="D73" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E73" s="140" t="s">
-        <v>103</v>
-      </c>
-      <c r="F73" s="141"/>
-      <c r="G73" s="213" t="s">
-        <v>143</v>
-      </c>
-      <c r="H73" s="115" t="s">
+      <c r="D73" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="F73" s="107"/>
+      <c r="G73" s="159" t="s">
+        <v>139</v>
+      </c>
+      <c r="H73" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I73" s="148" t="s">
-        <v>125</v>
+      <c r="I73" s="77" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="186"/>
-      <c r="B74" s="101"/>
+      <c r="A74" s="73"/>
+      <c r="B74" s="82"/>
       <c r="C74" s="6">
         <v>22</v>
       </c>
-      <c r="D74" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="E74" s="142"/>
-      <c r="F74" s="143"/>
-      <c r="G74" s="214"/>
-      <c r="H74" s="116"/>
-      <c r="I74" s="149"/>
+      <c r="D74" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="108"/>
+      <c r="F74" s="109"/>
+      <c r="G74" s="160"/>
+      <c r="H74" s="86"/>
+      <c r="I74" s="78"/>
     </row>
     <row r="75" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="186"/>
-      <c r="B75" s="101"/>
-      <c r="C75" s="27">
+      <c r="A75" s="73"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="25">
         <v>21</v>
       </c>
-      <c r="D75" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" s="231" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="232"/>
-      <c r="G75" s="221"/>
-      <c r="H75" s="39" t="s">
+      <c r="D75" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="F75" s="152"/>
+      <c r="G75" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="H75" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="I75" s="41" t="s">
-        <v>131</v>
+      <c r="I75" s="59" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="187"/>
-      <c r="B76" s="102"/>
+      <c r="A76" s="74"/>
+      <c r="B76" s="83"/>
       <c r="C76" s="4">
         <v>22</v>
       </c>
-      <c r="D76" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="E76" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="F76" s="139"/>
-      <c r="G76" s="90" t="s">
-        <v>142</v>
-      </c>
-      <c r="H76" s="89" t="s">
+      <c r="D76" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="F76" s="128"/>
+      <c r="G76" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="H76" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I76" s="91" t="s">
-        <v>131</v>
+      <c r="I76" s="60" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="185" t="s">
-        <v>99</v>
-      </c>
-      <c r="B77" s="100" t="s">
+      <c r="A77" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="81" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="4">
         <v>5</v>
       </c>
-      <c r="D77" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="E77" s="132" t="s">
+      <c r="D77" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" s="128"/>
+      <c r="G77" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="F77" s="139"/>
-      <c r="G77" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="H77" s="71" t="s">
+      <c r="H77" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="I77" s="74" t="s">
-        <v>141</v>
+      <c r="I77" s="60" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="186"/>
-      <c r="B78" s="101"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="82"/>
       <c r="C78" s="4">
         <v>13</v>
       </c>
-      <c r="D78" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="E78" s="132" t="s">
-        <v>109</v>
-      </c>
-      <c r="F78" s="139"/>
-      <c r="G78" s="151" t="s">
+      <c r="D78" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="H78" s="132" t="s">
+      <c r="F78" s="128"/>
+      <c r="G78" s="133" t="s">
+        <v>105</v>
+      </c>
+      <c r="H78" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="I78" s="190"/>
+      <c r="I78" s="91"/>
     </row>
     <row r="79" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="186"/>
-      <c r="B79" s="101"/>
-      <c r="C79" s="27">
+      <c r="A79" s="73"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="25">
         <v>25</v>
       </c>
-      <c r="D79" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" s="188"/>
-      <c r="F79" s="189"/>
-      <c r="G79" s="179"/>
-      <c r="H79" s="188"/>
-      <c r="I79" s="191"/>
+      <c r="D79" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="129"/>
+      <c r="F79" s="130"/>
+      <c r="G79" s="134"/>
+      <c r="H79" s="129"/>
+      <c r="I79" s="175"/>
     </row>
     <row r="80" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="186"/>
-      <c r="B80" s="102"/>
+      <c r="A80" s="73"/>
+      <c r="B80" s="83"/>
       <c r="C80" s="6">
         <v>26</v>
       </c>
-      <c r="D80" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="E80" s="172"/>
-      <c r="F80" s="173"/>
-      <c r="G80" s="162"/>
-      <c r="H80" s="172"/>
-      <c r="I80" s="192"/>
+      <c r="D80" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="131"/>
+      <c r="F80" s="132"/>
+      <c r="G80" s="135"/>
+      <c r="H80" s="131"/>
+      <c r="I80" s="151"/>
     </row>
     <row r="81" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="187"/>
-      <c r="B81" s="17" t="s">
+      <c r="A81" s="74"/>
+      <c r="B81" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="47">
+      <c r="C81" s="32">
         <v>8</v>
       </c>
-      <c r="D81" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F81" s="13"/>
+      <c r="D81" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="F81" s="65"/>
       <c r="G81" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H81" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="H81" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="I81" s="134"/>
+      <c r="I81" s="80"/>
     </row>
     <row r="82" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="18"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="18"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="16"/>
     </row>
     <row r="83" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C83" s="20"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="16"/>
     </row>
     <row r="84" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="20"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="16"/>
     </row>
     <row r="85" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="18"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="16"/>
     </row>
     <row r="86" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="18"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="16"/>
     </row>
     <row r="87" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="18"/>
+      <c r="B87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="16"/>
     </row>
     <row r="88" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="18"/>
+      <c r="B88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="16"/>
     </row>
     <row r="89" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="19"/>
-      <c r="N89" s="25"/>
+      <c r="B89" s="17"/>
+      <c r="N89" s="23"/>
     </row>
     <row r="90" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N90" s="26"/>
+      <c r="N90" s="24"/>
     </row>
     <row r="91" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="133">
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="B47:B57"/>
+    <mergeCell ref="E36:F38"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E19:F21"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="E78:F80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="E31:F33"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H58:H62"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="E58:F62"/>
+    <mergeCell ref="E66:F69"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
     <mergeCell ref="A4:A76"/>
     <mergeCell ref="E26:F27"/>
     <mergeCell ref="G26:G27"/>
@@ -4520,115 +4548,6 @@
     <mergeCell ref="E51:E52"/>
     <mergeCell ref="G51:G52"/>
     <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="E31:F33"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H58:H62"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="E78:F80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="E58:F62"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="I58:I62"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E19:F21"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="E66:F69"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E73:F74"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="B47:B57"/>
-    <mergeCell ref="E36:F38"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="E39:F40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/平成31年度/04_総会資料/2. 令和元年度 活動報告.xlsx
+++ b/平成31年度/04_総会資料/2. 令和元年度 活動報告.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\04_総会資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70057C27-BC37-447E-9D37-6213769FB491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="26130" windowHeight="16890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$85</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="155">
   <si>
     <t>４月</t>
     <rPh sb="1" eb="2">
@@ -296,14 +295,6 @@
     <t>(月)</t>
     <rPh sb="1" eb="2">
       <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">参加
-</t>
-    <rPh sb="0" eb="2">
-      <t>サンカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1422,11 +1413,22 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>参加
+参加</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1937,6 +1939,231 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1946,285 +2173,72 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2236,18 +2250,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2342,23 +2344,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2394,23 +2379,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2586,7 +2554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2594,25 +2562,25 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="10"/>
-    <col min="2" max="2" width="5.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="3.6640625" style="10"/>
-    <col min="14" max="14" width="3.109375" style="10" customWidth="1"/>
-    <col min="15" max="16384" width="3.6640625" style="10"/>
+    <col min="1" max="1" width="3.625" style="10"/>
+    <col min="2" max="2" width="5.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="3.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="4.625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="37.625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="3.625" style="10"/>
+    <col min="14" max="14" width="3.125" style="10" customWidth="1"/>
+    <col min="15" max="16384" width="3.625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -2622,92 +2590,92 @@
       <c r="H1" s="13"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="155" t="s">
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="79" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="80"/>
+      <c r="F3" s="116"/>
       <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="80"/>
-    </row>
-    <row r="4" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="I3" s="116"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="147" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="4">
         <v>9</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="168" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="169"/>
-      <c r="G4" s="157" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="172" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="173"/>
+      <c r="G4" s="123" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="77" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
-      <c r="B5" s="82"/>
+      <c r="I4" s="78" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="148"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="25">
         <v>10</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="78"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
-      <c r="B6" s="82"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="79"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="148"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="36">
         <v>10</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="107"/>
+      <c r="E6" s="135" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="136"/>
       <c r="G6" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" s="48" t="s">
         <v>11</v>
@@ -2716,110 +2684,110 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
-      <c r="B7" s="82"/>
+    <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="148"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="35">
         <v>11</v>
       </c>
       <c r="D7" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="127" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="128"/>
-      <c r="G7" s="133" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="127" t="s">
+      <c r="E7" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="84"/>
+      <c r="G7" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="83"/>
+      <c r="I7" s="138" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="148"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="45">
         <v>17</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="131"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="151"/>
-    </row>
-    <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
-      <c r="B9" s="81" t="s">
+      <c r="E8" s="125"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="142"/>
+    </row>
+    <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="148"/>
+      <c r="B9" s="85" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="144"/>
-      <c r="G9" s="157" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="127" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="119"/>
+      <c r="G9" s="123" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
-      <c r="B10" s="82"/>
+      <c r="I9" s="138" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="148"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="25">
         <v>3</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="151"/>
-    </row>
-    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
-      <c r="B11" s="82"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="142"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="148"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="4">
         <v>9</v>
       </c>
       <c r="D11" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="149" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="150"/>
-      <c r="G11" s="148" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="127" t="s">
+      <c r="F11" s="140"/>
+      <c r="G11" s="137" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
-      <c r="B12" s="82"/>
+      <c r="I11" s="138" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="148"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="6">
         <v>10</v>
       </c>
@@ -2827,173 +2795,173 @@
         <v>28</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="63"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="78"/>
-    </row>
-    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
-      <c r="B13" s="82"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="79"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="148"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="4">
         <v>16</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="144"/>
-      <c r="G13" s="146" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="85" t="s">
+      <c r="F13" s="119"/>
+      <c r="G13" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="77" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
-      <c r="B14" s="82"/>
+      <c r="I13" s="78" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="148"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="25">
         <v>17</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="78"/>
-    </row>
-    <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="73"/>
-      <c r="B15" s="82"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="79"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="148"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="4">
         <v>30</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="168" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="169"/>
-      <c r="G15" s="157" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="172" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="173"/>
+      <c r="G15" s="123" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="77" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
-      <c r="B16" s="82"/>
+      <c r="I15" s="78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="148"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="25">
         <v>31</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="170"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="78"/>
-    </row>
-    <row r="17" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
-      <c r="B17" s="82"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="79"/>
+    </row>
+    <row r="17" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="148"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="4">
         <v>30</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="144"/>
-      <c r="G17" s="146" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="119"/>
+      <c r="G17" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="91" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
-      <c r="B18" s="83"/>
+      <c r="I17" s="138" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="148"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="25">
         <v>31</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="78"/>
-    </row>
-    <row r="19" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="73"/>
-      <c r="B19" s="81" t="s">
+      <c r="E18" s="77"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="79"/>
+    </row>
+    <row r="19" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="148"/>
+      <c r="B19" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="E19" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="129"/>
+      <c r="G19" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="140"/>
-      <c r="G19" s="133" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" s="91" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="73"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="92"/>
-    </row>
-    <row r="21" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="73"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="78"/>
+      <c r="H19" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="138" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="148"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="141"/>
+    </row>
+    <row r="21" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="148"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="79"/>
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
@@ -3019,27 +2987,27 @@
       <c r="AG21" s="29"/>
       <c r="AH21" s="29"/>
     </row>
-    <row r="22" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="73"/>
+    <row r="22" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="148"/>
       <c r="B22" s="44"/>
       <c r="C22" s="6">
         <v>28</v>
       </c>
       <c r="D22" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="98" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="99"/>
+      <c r="F22" s="161"/>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H22" s="62" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
@@ -3066,29 +3034,29 @@
       <c r="AG22" s="29"/>
       <c r="AH22" s="29"/>
     </row>
-    <row r="23" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="73"/>
-      <c r="B23" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="172">
+    <row r="23" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="148"/>
+      <c r="B23" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="72">
         <v>5</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="75" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="173"/>
-      <c r="G23" s="157" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="87"/>
+      <c r="G23" s="123" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="77" t="s">
-        <v>128</v>
+      <c r="I23" s="78" t="s">
+        <v>127</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
@@ -3115,20 +3083,20 @@
       <c r="AG23" s="29"/>
       <c r="AH23" s="29"/>
     </row>
-    <row r="24" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="73"/>
-      <c r="B24" s="82"/>
+    <row r="24" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="148"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="6">
         <v>6</v>
       </c>
       <c r="D24" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="78"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="79"/>
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
@@ -3154,48 +3122,48 @@
       <c r="AG24" s="29"/>
       <c r="AH24" s="29"/>
     </row>
-    <row r="25" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
-      <c r="B25" s="82"/>
+    <row r="25" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="148"/>
+      <c r="B25" s="73"/>
       <c r="C25" s="4">
         <v>11</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="138" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="139"/>
+      <c r="F25" s="144"/>
       <c r="G25" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H25" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="80"/>
-    </row>
-    <row r="26" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
-      <c r="B26" s="82"/>
+      <c r="I25" s="116"/>
+    </row>
+    <row r="26" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="148"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="4">
         <v>11</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="173"/>
-      <c r="G26" s="157" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="128" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="87"/>
+      <c r="G26" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="77" t="s">
-        <v>36</v>
+      <c r="I26" s="78" t="s">
+        <v>35</v>
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
@@ -3222,20 +3190,20 @@
       <c r="AG26" s="29"/>
       <c r="AH26" s="29"/>
     </row>
-    <row r="27" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="73"/>
-      <c r="B27" s="83"/>
+    <row r="27" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="148"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="6">
         <v>12</v>
       </c>
       <c r="D27" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="76"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="78"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="79"/>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
@@ -3261,29 +3229,29 @@
       <c r="AG27" s="29"/>
       <c r="AH27" s="29"/>
     </row>
-    <row r="28" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="73"/>
-      <c r="B28" s="81" t="s">
-        <v>51</v>
+    <row r="28" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="148"/>
+      <c r="B28" s="85" t="s">
+        <v>50</v>
       </c>
       <c r="C28" s="4">
         <v>15</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="87"/>
+      <c r="G28" s="90" t="s">
         <v>49</v>
-      </c>
-      <c r="F28" s="173"/>
-      <c r="G28" s="167" t="s">
-        <v>50</v>
       </c>
       <c r="H28" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I28" s="70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
@@ -3310,23 +3278,23 @@
       <c r="AG28" s="29"/>
       <c r="AH28" s="29"/>
     </row>
-    <row r="29" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="73"/>
-      <c r="B29" s="82"/>
+    <row r="29" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="148"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="6">
         <v>16</v>
       </c>
       <c r="D29" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="76"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="115"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="91"/>
       <c r="H29" s="27" t="s">
         <v>1</v>
       </c>
       <c r="I29" s="70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
@@ -3353,334 +3321,334 @@
       <c r="AG29" s="29"/>
       <c r="AH29" s="29"/>
     </row>
-    <row r="30" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
-      <c r="B30" s="82"/>
+    <row r="30" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="148"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="45">
         <v>22</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="84"/>
+        <v>32</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="132"/>
       <c r="G30" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H30" s="71" t="s">
         <v>1</v>
       </c>
       <c r="I30" s="57" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="148"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="110" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="101"/>
-      <c r="G31" s="133" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="I31" s="91" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="73"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="92"/>
-    </row>
-    <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="78"/>
-    </row>
-    <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="73"/>
-      <c r="B34" s="82" t="s">
-        <v>60</v>
+      <c r="E31" s="162" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="163"/>
+      <c r="G31" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" s="138" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="148"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="141"/>
+    </row>
+    <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="148"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="79"/>
+    </row>
+    <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="148"/>
+      <c r="B34" s="73" t="s">
+        <v>59</v>
       </c>
       <c r="C34" s="4">
         <v>6</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="140"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I34" s="58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="73"/>
-      <c r="B35" s="82"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="148"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="6">
         <v>7</v>
       </c>
       <c r="D35" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="76"/>
-      <c r="F35" s="84"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="132"/>
       <c r="G35" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I35" s="59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="73"/>
-      <c r="B36" s="82"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="148"/>
+      <c r="B36" s="73"/>
       <c r="C36" s="25"/>
       <c r="D36" s="46"/>
-      <c r="E36" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="118"/>
-      <c r="G36" s="113" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="85" t="s">
+      <c r="E36" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="99"/>
+      <c r="G36" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="77" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="73"/>
-      <c r="B37" s="82"/>
+      <c r="I36" s="78" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="148"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="25">
         <v>14</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="119"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="92"/>
-    </row>
-    <row r="38" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="73"/>
-      <c r="B38" s="82"/>
+        <v>62</v>
+      </c>
+      <c r="E37" s="100"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="141"/>
+    </row>
+    <row r="38" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="148"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="25"/>
       <c r="D38" s="46"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="78"/>
-    </row>
-    <row r="39" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="73"/>
-      <c r="B39" s="82"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="79"/>
+    </row>
+    <row r="39" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="148"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="4">
         <v>20</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="127" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="116"/>
-      <c r="G39" s="167" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="76"/>
+      <c r="G39" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="77" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
-      <c r="B40" s="82"/>
+      <c r="I39" s="78" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="148"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="6">
         <v>21</v>
       </c>
       <c r="D40" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="86"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="78"/>
-    </row>
-    <row r="41" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="73"/>
-      <c r="B41" s="82"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="79"/>
+    </row>
+    <row r="41" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="148"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="4">
         <v>27</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="76"/>
+      <c r="G41" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="F41" s="116"/>
-      <c r="G41" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I41" s="58" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="73"/>
-      <c r="B42" s="82"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="148"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="6">
         <v>28</v>
       </c>
       <c r="D42" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="86"/>
-      <c r="F42" s="152"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="80"/>
       <c r="G42" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I42" s="59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="73"/>
-      <c r="B43" s="81" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="148"/>
+      <c r="B43" s="85" t="s">
         <v>18</v>
       </c>
       <c r="C43" s="4">
         <v>10</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="116"/>
+      <c r="F43" s="76"/>
       <c r="G43" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>11</v>
       </c>
       <c r="I43" s="58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="73"/>
-      <c r="B44" s="82"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="148"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="6">
         <v>11</v>
       </c>
       <c r="D44" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="86"/>
-      <c r="F44" s="152"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="80"/>
       <c r="G44" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I44" s="59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="73"/>
-      <c r="B45" s="82"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="148"/>
+      <c r="B45" s="73"/>
       <c r="C45" s="4">
         <v>24</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="135" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="136"/>
+      <c r="G45" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="107"/>
-      <c r="G45" s="161" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="85" t="s">
+      <c r="H45" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="77" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="73"/>
-      <c r="B46" s="82"/>
+      <c r="I45" s="78" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="148"/>
+      <c r="B46" s="73"/>
       <c r="C46" s="6">
         <v>25</v>
       </c>
       <c r="D46" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="108"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="78"/>
-    </row>
-    <row r="47" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="73"/>
-      <c r="B47" s="81" t="s">
+      <c r="E46" s="155"/>
+      <c r="F46" s="156"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="79"/>
+    </row>
+    <row r="47" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="148"/>
+      <c r="B47" s="85" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="32">
@@ -3690,401 +3658,401 @@
         <v>28</v>
       </c>
       <c r="E47" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F47" s="65"/>
       <c r="G47" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I47" s="58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="73"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="93" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="148"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="110" t="s">
+      <c r="E48" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="106"/>
+      <c r="G48" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="162"/>
-      <c r="G48" s="113" t="s">
-        <v>82</v>
-      </c>
-      <c r="H48" s="89" t="s">
+      <c r="H48" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="91" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="73"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="163"/>
-      <c r="F49" s="164"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="92"/>
-    </row>
-    <row r="50" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="73"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="165"/>
-      <c r="F50" s="166"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="78"/>
-    </row>
-    <row r="51" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="73"/>
-      <c r="B51" s="82"/>
+      <c r="I48" s="138" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="148"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="141"/>
+    </row>
+    <row r="50" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="148"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="79"/>
+    </row>
+    <row r="51" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="148"/>
+      <c r="B51" s="73"/>
       <c r="C51" s="4">
         <v>7</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="85" t="s">
-        <v>135</v>
+        <v>32</v>
+      </c>
+      <c r="E51" s="75" t="s">
+        <v>134</v>
       </c>
       <c r="F51" s="28"/>
-      <c r="G51" s="146" t="s">
-        <v>149</v>
-      </c>
-      <c r="H51" s="85" t="s">
+      <c r="G51" s="121" t="s">
+        <v>148</v>
+      </c>
+      <c r="H51" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="I51" s="77" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="73"/>
-      <c r="B52" s="82"/>
+      <c r="I51" s="78" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="148"/>
+      <c r="B52" s="73"/>
       <c r="C52" s="6">
         <v>8</v>
       </c>
       <c r="D52" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="86"/>
+      <c r="E52" s="77"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="147"/>
-      <c r="H52" s="86"/>
-      <c r="I52" s="78"/>
-    </row>
-    <row r="53" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="73"/>
-      <c r="B53" s="82"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="79"/>
+    </row>
+    <row r="53" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="148"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="32">
         <v>15</v>
       </c>
       <c r="D53" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="76"/>
+      <c r="G53" s="66" t="s">
         <v>84</v>
-      </c>
-      <c r="E53" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="116"/>
-      <c r="G53" s="66" t="s">
-        <v>85</v>
       </c>
       <c r="H53" s="48" t="s">
         <v>11</v>
       </c>
       <c r="I53" s="58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="73"/>
-      <c r="B54" s="82"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="148"/>
+      <c r="B54" s="73"/>
       <c r="C54" s="25"/>
       <c r="D54" s="46"/>
-      <c r="E54" s="117" t="s">
-        <v>87</v>
-      </c>
-      <c r="F54" s="118"/>
-      <c r="G54" s="123" t="s">
-        <v>134</v>
-      </c>
-      <c r="H54" s="85" t="s">
+      <c r="E54" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="F54" s="99"/>
+      <c r="G54" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="77" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="73"/>
-      <c r="B55" s="82"/>
+      <c r="I54" s="78" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="148"/>
+      <c r="B55" s="73"/>
       <c r="C55" s="25">
         <v>21</v>
       </c>
       <c r="D55" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" s="119"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="124"/>
-      <c r="H55" s="126"/>
-      <c r="I55" s="92"/>
-    </row>
-    <row r="56" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="73"/>
-      <c r="B56" s="82"/>
+        <v>32</v>
+      </c>
+      <c r="E55" s="100"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="151"/>
+      <c r="H55" s="111"/>
+      <c r="I55" s="141"/>
+    </row>
+    <row r="56" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="148"/>
+      <c r="B56" s="73"/>
       <c r="C56" s="25"/>
       <c r="D56" s="46"/>
-      <c r="E56" s="121"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="125"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="78"/>
-    </row>
-    <row r="57" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="73"/>
-      <c r="B57" s="82"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="168"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="79"/>
+    </row>
+    <row r="57" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="148"/>
+      <c r="B57" s="73"/>
       <c r="C57" s="4">
         <v>28</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E57" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="F57" s="99"/>
+      <c r="E57" s="160" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" s="161"/>
       <c r="G57" s="55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I57" s="58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="73"/>
-      <c r="B58" s="81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="148"/>
+      <c r="B58" s="85" t="s">
         <v>19</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="38"/>
-      <c r="E58" s="106" t="s">
+      <c r="E58" s="135" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" s="136"/>
+      <c r="G58" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="H58" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="148"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="F58" s="107"/>
-      <c r="G58" s="41" t="s">
+      <c r="D59" s="171" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="169"/>
+      <c r="F59" s="170"/>
+      <c r="G59" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="H58" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" s="77" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="73"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="141" t="s">
-        <v>109</v>
-      </c>
-      <c r="D59" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="E59" s="136"/>
-      <c r="F59" s="137"/>
-      <c r="G59" s="42" t="s">
+      <c r="H59" s="111"/>
+      <c r="I59" s="141"/>
+    </row>
+    <row r="60" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="148"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="169"/>
+      <c r="F60" s="170"/>
+      <c r="G60" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="H59" s="126"/>
-      <c r="I59" s="92"/>
-    </row>
-    <row r="60" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="73"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="136"/>
-      <c r="F60" s="137"/>
-      <c r="G60" s="42" t="s">
+      <c r="H60" s="111"/>
+      <c r="I60" s="141"/>
+    </row>
+    <row r="61" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="148"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="169"/>
+      <c r="F61" s="170"/>
+      <c r="G61" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="H60" s="126"/>
-      <c r="I60" s="92"/>
-    </row>
-    <row r="61" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="73"/>
-      <c r="B61" s="82"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="136"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="H61" s="126"/>
-      <c r="I61" s="92"/>
-    </row>
-    <row r="62" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="73"/>
-      <c r="B62" s="82"/>
+      <c r="H61" s="111"/>
+      <c r="I61" s="141"/>
+    </row>
+    <row r="62" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="148"/>
+      <c r="B62" s="73"/>
       <c r="C62" s="6"/>
       <c r="D62" s="47"/>
-      <c r="E62" s="108"/>
-      <c r="F62" s="109"/>
+      <c r="E62" s="155"/>
+      <c r="F62" s="156"/>
       <c r="G62" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="H62" s="86"/>
-      <c r="I62" s="78"/>
-    </row>
-    <row r="63" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="73"/>
-      <c r="B63" s="83"/>
+        <v>114</v>
+      </c>
+      <c r="H62" s="77"/>
+      <c r="I62" s="79"/>
+    </row>
+    <row r="63" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="148"/>
+      <c r="B63" s="74"/>
       <c r="C63" s="32">
         <v>19</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="116"/>
+      <c r="F63" s="76"/>
       <c r="G63" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H63" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="H63" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="I63" s="80"/>
-    </row>
-    <row r="64" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="73"/>
-      <c r="B64" s="82" t="s">
-        <v>136</v>
+      <c r="I63" s="116"/>
+    </row>
+    <row r="64" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="148"/>
+      <c r="B64" s="73" t="s">
+        <v>135</v>
       </c>
       <c r="C64" s="4">
         <v>9</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="75" t="s">
         <v>27</v>
       </c>
       <c r="F64" s="28"/>
-      <c r="G64" s="133" t="s">
-        <v>150</v>
-      </c>
-      <c r="H64" s="85" t="s">
+      <c r="G64" s="117" t="s">
+        <v>149</v>
+      </c>
+      <c r="H64" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="I64" s="77" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="73"/>
-      <c r="B65" s="82"/>
+      <c r="I64" s="78" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="148"/>
+      <c r="B65" s="73"/>
       <c r="C65" s="6">
         <v>10</v>
       </c>
       <c r="D65" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E65" s="86"/>
+      <c r="E65" s="77"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="154"/>
-      <c r="H65" s="86"/>
-      <c r="I65" s="78"/>
-    </row>
-    <row r="66" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="73"/>
-      <c r="B66" s="82"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="79"/>
+    </row>
+    <row r="66" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="148"/>
+      <c r="B66" s="73"/>
       <c r="C66" s="4">
         <v>16</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E66" s="127" t="s">
-        <v>92</v>
-      </c>
-      <c r="F66" s="128"/>
+        <v>32</v>
+      </c>
+      <c r="E66" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="84"/>
       <c r="G66" s="51"/>
       <c r="H66" s="68"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="73"/>
-      <c r="B67" s="82"/>
+    <row r="67" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="148"/>
+      <c r="B67" s="73"/>
       <c r="C67" s="25">
         <v>17</v>
       </c>
       <c r="D67" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="129"/>
-      <c r="F67" s="130"/>
+      <c r="E67" s="152"/>
+      <c r="F67" s="153"/>
       <c r="G67" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H67" s="69" t="s">
         <v>22</v>
       </c>
       <c r="I67" s="70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="73"/>
-      <c r="B68" s="82"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="148"/>
+      <c r="B68" s="73"/>
       <c r="C68" s="25">
         <v>23</v>
       </c>
       <c r="D68" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E68" s="129"/>
-      <c r="F68" s="130"/>
+        <v>32</v>
+      </c>
+      <c r="E68" s="152"/>
+      <c r="F68" s="153"/>
       <c r="G68" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H68" s="69" t="s">
         <v>20</v>
       </c>
       <c r="I68" s="70" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="73"/>
-      <c r="B69" s="83"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="148"/>
+      <c r="B69" s="74"/>
       <c r="C69" s="25">
         <v>24</v>
       </c>
       <c r="D69" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="129"/>
-      <c r="F69" s="130"/>
+      <c r="E69" s="152"/>
+      <c r="F69" s="153"/>
       <c r="G69" s="53"/>
       <c r="H69" s="69"/>
       <c r="I69" s="30"/>
@@ -4111,217 +4079,219 @@
       <c r="AF69" s="29"/>
       <c r="AG69" s="29"/>
     </row>
-    <row r="70" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="73"/>
-      <c r="B70" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="C70" s="93" t="s">
+    <row r="70" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="148"/>
+      <c r="B70" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="157" t="s">
         <v>121</v>
-      </c>
-      <c r="D70" s="96" t="s">
-        <v>122</v>
       </c>
       <c r="E70" s="39"/>
       <c r="F70" s="40"/>
-      <c r="G70" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="H70" s="85" t="s">
+      <c r="G70" s="150" t="s">
+        <v>99</v>
+      </c>
+      <c r="H70" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="77" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="73"/>
-      <c r="B71" s="82"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="88"/>
+      <c r="I70" s="78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="148"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="158"/>
       <c r="E71" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F71" s="30"/>
-      <c r="G71" s="124"/>
-      <c r="H71" s="126"/>
-      <c r="I71" s="92"/>
-    </row>
-    <row r="72" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="73"/>
-      <c r="B72" s="82"/>
-      <c r="C72" s="95"/>
-      <c r="D72" s="97"/>
+      <c r="G71" s="151"/>
+      <c r="H71" s="111"/>
+      <c r="I71" s="141"/>
+    </row>
+    <row r="72" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="148"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="159"/>
       <c r="E72" s="69"/>
       <c r="F72" s="30"/>
-      <c r="G72" s="124"/>
-      <c r="H72" s="126"/>
-      <c r="I72" s="92"/>
-    </row>
-    <row r="73" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="73"/>
-      <c r="B73" s="82"/>
+      <c r="G72" s="151"/>
+      <c r="H72" s="111"/>
+      <c r="I72" s="141"/>
+    </row>
+    <row r="73" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="148"/>
+      <c r="B73" s="73"/>
       <c r="C73" s="4">
         <v>21</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73" s="106" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="107"/>
-      <c r="G73" s="159" t="s">
-        <v>139</v>
-      </c>
-      <c r="H73" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="135" t="s">
+        <v>100</v>
+      </c>
+      <c r="F73" s="136"/>
+      <c r="G73" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="H73" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I73" s="77" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="73"/>
-      <c r="B74" s="82"/>
+      <c r="I73" s="78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="148"/>
+      <c r="B74" s="73"/>
       <c r="C74" s="6">
         <v>22</v>
       </c>
       <c r="D74" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E74" s="108"/>
-      <c r="F74" s="109"/>
-      <c r="G74" s="160"/>
-      <c r="H74" s="86"/>
-      <c r="I74" s="78"/>
-    </row>
-    <row r="75" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="73"/>
-      <c r="B75" s="82"/>
+      <c r="E74" s="155"/>
+      <c r="F74" s="156"/>
+      <c r="G74" s="82"/>
+      <c r="H74" s="77"/>
+      <c r="I74" s="79"/>
+    </row>
+    <row r="75" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="148"/>
+      <c r="B75" s="73"/>
       <c r="C75" s="25">
         <v>21</v>
       </c>
       <c r="D75" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E75" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="F75" s="152"/>
+        <v>32</v>
+      </c>
+      <c r="E75" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F75" s="80"/>
       <c r="G75" s="67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H75" s="62" t="s">
         <v>14</v>
       </c>
       <c r="I75" s="59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="74"/>
-      <c r="B76" s="83"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="149"/>
+      <c r="B76" s="74"/>
       <c r="C76" s="4">
         <v>22</v>
       </c>
       <c r="D76" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E76" s="127" t="s">
-        <v>102</v>
-      </c>
-      <c r="F76" s="128"/>
+        <v>62</v>
+      </c>
+      <c r="E76" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="F76" s="84"/>
       <c r="G76" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H76" s="56" t="s">
         <v>11</v>
       </c>
       <c r="I76" s="60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="B77" s="81" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="147" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="85" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="4">
         <v>5</v>
       </c>
       <c r="D77" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E77" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="F77" s="84"/>
+      <c r="G77" s="61" t="s">
         <v>103</v>
-      </c>
-      <c r="E77" s="127" t="s">
-        <v>102</v>
-      </c>
-      <c r="F77" s="128"/>
-      <c r="G77" s="61" t="s">
-        <v>104</v>
       </c>
       <c r="H77" s="56" t="s">
         <v>11</v>
       </c>
       <c r="I77" s="60" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="73"/>
-      <c r="B78" s="82"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="148"/>
+      <c r="B78" s="73"/>
       <c r="C78" s="4">
         <v>13</v>
       </c>
       <c r="D78" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="E78" s="127" t="s">
-        <v>107</v>
-      </c>
-      <c r="F78" s="128"/>
-      <c r="G78" s="133" t="s">
-        <v>105</v>
-      </c>
-      <c r="H78" s="127" t="s">
+      <c r="F78" s="84"/>
+      <c r="G78" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="H78" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="I78" s="91"/>
-    </row>
-    <row r="79" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="73"/>
-      <c r="B79" s="82"/>
+      <c r="I78" s="138" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="148"/>
+      <c r="B79" s="73"/>
       <c r="C79" s="25">
         <v>25</v>
       </c>
       <c r="D79" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E79" s="129"/>
-      <c r="F79" s="130"/>
-      <c r="G79" s="134"/>
-      <c r="H79" s="129"/>
-      <c r="I79" s="175"/>
-    </row>
-    <row r="80" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="73"/>
-      <c r="B80" s="83"/>
+        <v>32</v>
+      </c>
+      <c r="E79" s="152"/>
+      <c r="F79" s="153"/>
+      <c r="G79" s="133"/>
+      <c r="H79" s="152"/>
+      <c r="I79" s="154"/>
+    </row>
+    <row r="80" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="148"/>
+      <c r="B80" s="74"/>
       <c r="C80" s="6">
         <v>26</v>
       </c>
       <c r="D80" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E80" s="131"/>
-      <c r="F80" s="132"/>
-      <c r="G80" s="135"/>
-      <c r="H80" s="131"/>
-      <c r="I80" s="151"/>
-    </row>
-    <row r="81" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="74"/>
+      <c r="E80" s="125"/>
+      <c r="F80" s="126"/>
+      <c r="G80" s="118"/>
+      <c r="H80" s="125"/>
+      <c r="I80" s="142"/>
+    </row>
+    <row r="81" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="149"/>
       <c r="B81" s="15" t="s">
         <v>15</v>
       </c>
@@ -4329,21 +4299,21 @@
         <v>8</v>
       </c>
       <c r="D81" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E81" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F81" s="65"/>
       <c r="G81" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H81" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="H81" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="I81" s="80"/>
-    </row>
-    <row r="82" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I81" s="116"/>
+    </row>
+    <row r="82" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="16"/>
       <c r="C82" s="17"/>
       <c r="D82" s="18"/>
@@ -4353,7 +4323,7 @@
       <c r="H82" s="17"/>
       <c r="I82" s="16"/>
     </row>
-    <row r="83" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="19" t="s">
         <v>6</v>
       </c>
@@ -4364,7 +4334,7 @@
       <c r="H83" s="17"/>
       <c r="I83" s="16"/>
     </row>
-    <row r="84" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="19" t="s">
         <v>5</v>
       </c>
@@ -4375,7 +4345,7 @@
       <c r="H84" s="17"/>
       <c r="I84" s="16"/>
     </row>
-    <row r="85" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="18"/>
@@ -4385,7 +4355,7 @@
       <c r="H85" s="17"/>
       <c r="I85" s="16"/>
     </row>
-    <row r="86" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="18"/>
@@ -4395,26 +4365,135 @@
       <c r="H86" s="17"/>
       <c r="I86" s="16"/>
     </row>
-    <row r="87" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="17"/>
       <c r="H87" s="17"/>
       <c r="I87" s="16"/>
     </row>
-    <row r="88" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="17"/>
       <c r="H88" s="17"/>
       <c r="I88" s="16"/>
     </row>
-    <row r="89" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="17"/>
       <c r="N89" s="23"/>
     </row>
-    <row r="90" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N90" s="24"/>
     </row>
-    <row r="91" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="133">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="A4:A76"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="E58:F62"/>
+    <mergeCell ref="E66:F69"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="E78:F80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="E31:F33"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H58:H62"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E19:F21"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
     <mergeCell ref="B64:B69"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="H73:H74"/>
@@ -4439,115 +4518,6 @@
     <mergeCell ref="E41:F42"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="E39:F40"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E19:F21"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="I58:I62"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="E78:F80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E73:F74"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="E31:F33"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H58:H62"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="E58:F62"/>
-    <mergeCell ref="E66:F69"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="A4:A76"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4557,12 +4527,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4570,12 +4540,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
